--- a/artfynd/A 60839-2021 artfynd.xlsx
+++ b/artfynd/A 60839-2021 artfynd.xlsx
@@ -1065,12 +1065,7 @@
         <v>124198769</v>
       </c>
       <c r="B5" t="n">
-        <v>58218</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>58605</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
